--- a/112302064_金融二_蔡承志.xlsx
+++ b/112302064_金融二_蔡承志.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caichengzhi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354A727E-6C69-C44F-9A89-0E5F3D891169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C05F2F1-1AD5-4746-A784-3FA189A58384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
+    <workbookView xWindow="3520" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -384,6 +384,64 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>bar graph of the students' overall scores</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -806,6 +864,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-751A-334F-BE9C-5BDC3DEC7497}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -821,7 +884,71 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-751A-334F-BE9C-5BDC3DEC7497}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>工作表1!$N$2:$N$3</c:f>
@@ -864,7 +991,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -2429,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/112302064_金融二_蔡承志.xlsx
+++ b/112302064_金融二_蔡承志.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caichengzhi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caichengzhi/Desktop/HW2-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C05F2F1-1AD5-4746-A784-3FA189A58384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C9AB5-91C5-5541-93D6-91996DD5EB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -2556,7 +2556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
